--- a/TestData/testdata.xlsx
+++ b/TestData/testdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAA962F-7344-45F1-9BE3-D63913D61B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881CB3EE-899A-41BD-A81D-977819E88560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Execute</t>
   </si>
@@ -49,12 +49,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>AccountId</t>
-  </si>
-  <si>
-    <t>KitTypeId</t>
-  </si>
-  <si>
     <t>Create Kit Item by passing blank UserId</t>
   </si>
   <si>
@@ -64,9 +58,6 @@
     <t>4564b6b1-6bab-44e4-ac72-e6a834719fc2</t>
   </si>
   <si>
-    <t>0f8899ae-7593-4909-836a-1cf9719002aa</t>
-  </si>
-  <si>
     <t>YES</t>
   </si>
   <si>
@@ -119,6 +110,36 @@
   </si>
   <si>
     <t>44-</t>
+  </si>
+  <si>
+    <t>user@phptravels.com</t>
+  </si>
+  <si>
+    <t>demouser</t>
+  </si>
+  <si>
+    <t>Login to Site</t>
+  </si>
+  <si>
+    <t>TestCase</t>
+  </si>
+  <si>
+    <t>SearchHotels</t>
+  </si>
+  <si>
+    <t>Search Hotels</t>
+  </si>
+  <si>
+    <t>City Name</t>
+  </si>
+  <si>
+    <t>Checkin Date</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -134,7 +155,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,6 +165,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -160,9 +187,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,15 +483,15 @@
     <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
     <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="37.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +499,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -479,82 +508,94 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>7380</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>7380</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>7380</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -567,7 +608,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -585,10 +626,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -598,12 +639,12 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -624,14 +665,14 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -639,10 +680,10 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F10">
         <v>7380</v>
@@ -651,28 +692,28 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
         <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
       </c>
       <c r="F12">
         <v>7380</v>
@@ -680,40 +721,40 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.3">
@@ -723,7 +764,7 @@
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E19" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
